--- a/Code/Results/Cases/Case_2_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9800300091604112</v>
+        <v>1.03612509674085</v>
       </c>
       <c r="D2">
-        <v>1.000880456260553</v>
+        <v>1.038138645255278</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.988733503845625</v>
+        <v>1.04360766331726</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033830176962475</v>
+        <v>1.034158167621293</v>
       </c>
       <c r="J2">
-        <v>1.002824878926071</v>
+        <v>1.041235120978439</v>
       </c>
       <c r="K2">
-        <v>1.012327538542646</v>
+        <v>1.04092753164607</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.00035206288129</v>
+        <v>1.046381051344862</v>
       </c>
       <c r="N2">
-        <v>1.004249005279768</v>
+        <v>1.042713794281605</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9899358732528428</v>
+        <v>1.037922818510341</v>
       </c>
       <c r="D3">
-        <v>1.008458053163225</v>
+        <v>1.039509490123185</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9985157583154974</v>
+        <v>1.045453735789065</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036903765439792</v>
+        <v>1.034605084211917</v>
       </c>
       <c r="J3">
-        <v>1.010704707877891</v>
+        <v>1.042672406023564</v>
       </c>
       <c r="K3">
-        <v>1.018983843508026</v>
+        <v>1.04210684621371</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.009167665584352</v>
+        <v>1.048035490544426</v>
       </c>
       <c r="N3">
-        <v>1.012140024492528</v>
+        <v>1.044153120436315</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9960859312432752</v>
+        <v>1.039081994242461</v>
       </c>
       <c r="D4">
-        <v>1.013164849824952</v>
+        <v>1.040392815400964</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.004596989853716</v>
+        <v>1.046644571299179</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038796533506626</v>
+        <v>1.03489117027549</v>
       </c>
       <c r="J4">
-        <v>1.015590292010325</v>
+        <v>1.043598137212408</v>
       </c>
       <c r="K4">
-        <v>1.023106941410029</v>
+        <v>1.042865721643377</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.014640248086302</v>
+        <v>1.049101911696669</v>
       </c>
       <c r="N4">
-        <v>1.017032546714814</v>
+        <v>1.04508016626963</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9986139335653609</v>
+        <v>1.039568356608781</v>
       </c>
       <c r="D5">
-        <v>1.015099938248232</v>
+        <v>1.040763292616308</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.007098510008038</v>
+        <v>1.047144332772767</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039570752393653</v>
+        <v>1.035010704669345</v>
       </c>
       <c r="J5">
-        <v>1.017596849595118</v>
+        <v>1.043986303652549</v>
       </c>
       <c r="K5">
-        <v>1.024799354829488</v>
+        <v>1.04318375555812</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.016889540367951</v>
+        <v>1.049549268613698</v>
       </c>
       <c r="N5">
-        <v>1.019041953841533</v>
+        <v>1.045468883950638</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9990351514409738</v>
+        <v>1.039649963540637</v>
       </c>
       <c r="D6">
-        <v>1.015422379222909</v>
+        <v>1.040825446590854</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.007515419430988</v>
+        <v>1.047228194709199</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039699526490386</v>
+        <v>1.035030732013508</v>
       </c>
       <c r="J6">
-        <v>1.017931082611276</v>
+        <v>1.044051419675552</v>
       </c>
       <c r="K6">
-        <v>1.025081201450094</v>
+        <v>1.0432370967421</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.017264303265878</v>
+        <v>1.049624325643864</v>
       </c>
       <c r="N6">
-        <v>1.019376661506911</v>
+        <v>1.045534092445863</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9961199306191959</v>
+        <v>1.039088496766832</v>
       </c>
       <c r="D7">
-        <v>1.013190873918713</v>
+        <v>1.040397769146096</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907978915</v>
       </c>
       <c r="F7">
-        <v>1.004630626003353</v>
+        <v>1.046651252512191</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038806961297495</v>
+        <v>1.034892770384848</v>
       </c>
       <c r="J7">
-        <v>1.015617285194018</v>
+        <v>1.043603327862383</v>
       </c>
       <c r="K7">
-        <v>1.023129712541801</v>
+        <v>1.042869975129233</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624459041</v>
       </c>
       <c r="M7">
-        <v>1.014670500091871</v>
+        <v>1.049107893075316</v>
       </c>
       <c r="N7">
-        <v>1.017059578231924</v>
+        <v>1.045085364290922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9834345267983179</v>
+        <v>1.036733499764159</v>
       </c>
       <c r="D8">
-        <v>1.003484173642706</v>
+        <v>1.038602703771005</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674294</v>
       </c>
       <c r="F8">
-        <v>0.9920937950588883</v>
+        <v>1.044232329252598</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034889756368037</v>
+        <v>1.034309850256337</v>
       </c>
       <c r="J8">
-        <v>1.005534419614325</v>
+        <v>1.041721755612599</v>
       </c>
       <c r="K8">
-        <v>1.014617155518654</v>
+        <v>1.04132696813396</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591053</v>
       </c>
       <c r="M8">
-        <v>1.003381936772007</v>
+        <v>1.046941038931198</v>
       </c>
       <c r="N8">
-        <v>1.006962393826587</v>
+        <v>1.043201119992724</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.958845252505115</v>
+        <v>1.032551644289019</v>
       </c>
       <c r="D9">
-        <v>0.9846983216352684</v>
+        <v>1.035410585398478</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9678635933304374</v>
+        <v>1.039940694406426</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027173102146863</v>
+        <v>1.033258679585634</v>
       </c>
       <c r="J9">
-        <v>0.9859399496024117</v>
+        <v>1.038372632144506</v>
       </c>
       <c r="K9">
-        <v>0.9980446343593539</v>
+        <v>1.03857508712197</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9815005074525868</v>
+        <v>1.04309047049321</v>
       </c>
       <c r="N9">
-        <v>0.9873400974197402</v>
+        <v>1.039847240385157</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9405299305567196</v>
+        <v>1.029740960714777</v>
       </c>
       <c r="D10">
-        <v>0.9707445570548433</v>
+        <v>1.033262141114904</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547168</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9498737434456921</v>
+        <v>1.037058759538192</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021348814389837</v>
+        <v>1.032541405614812</v>
       </c>
       <c r="J10">
-        <v>0.971319276195608</v>
+        <v>1.036116325308596</v>
       </c>
       <c r="K10">
-        <v>0.9856629112603252</v>
+        <v>1.036717550341339</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689269</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9652111270573167</v>
+        <v>1.040500579549706</v>
       </c>
       <c r="N10">
-        <v>0.9726986609796839</v>
+        <v>1.037587729334738</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9320205635112959</v>
+        <v>1.028518224331002</v>
       </c>
       <c r="D11">
-        <v>0.9642761226245664</v>
+        <v>1.032326813190843</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9415320332694024</v>
+        <v>1.03580563119657</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018627013904152</v>
+        <v>1.032226824145286</v>
       </c>
       <c r="J11">
-        <v>0.9645228229823898</v>
+        <v>1.03513350757703</v>
       </c>
       <c r="K11">
-        <v>0.9799047195613708</v>
+        <v>1.035907587489115</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416574</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9576477430579827</v>
+        <v>1.03937345545901</v>
       </c>
       <c r="N11">
-        <v>0.9658925560233389</v>
+        <v>1.036603515889263</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9287594543370696</v>
+        <v>1.028063166494795</v>
       </c>
       <c r="D12">
-        <v>0.9617999159626437</v>
+        <v>1.031978616776366</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9383379266716781</v>
+        <v>1.035339353743857</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017581795751723</v>
+        <v>1.032109366906693</v>
       </c>
       <c r="J12">
-        <v>0.9619178874460023</v>
+        <v>1.03476755113127</v>
       </c>
       <c r="K12">
-        <v>0.977697482035585</v>
+        <v>1.035605868150702</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9547501572460265</v>
+        <v>1.038953915341526</v>
       </c>
       <c r="N12">
-        <v>0.9632839211796994</v>
+        <v>1.036237039743374</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9294637637504336</v>
+        <v>1.028160818114856</v>
       </c>
       <c r="D13">
-        <v>0.9623345746212896</v>
+        <v>1.032053341391661</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9390276364020761</v>
+        <v>1.035439408870862</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017807624949251</v>
+        <v>1.032134589497593</v>
       </c>
       <c r="J13">
-        <v>0.9624804892110363</v>
+        <v>1.034846090810584</v>
       </c>
       <c r="K13">
-        <v>0.978174199501351</v>
+        <v>1.035670627290563</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9553759061192849</v>
+        <v>1.039043948121127</v>
       </c>
       <c r="N13">
-        <v>0.9638473219037711</v>
+        <v>1.036315690958041</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9317531349676581</v>
+        <v>1.028480627181543</v>
       </c>
       <c r="D14">
-        <v>0.9640730014144113</v>
+        <v>1.032298047055737</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.941270041958309</v>
+        <v>1.03576710521532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018541341595052</v>
+        <v>1.032217127531437</v>
       </c>
       <c r="J14">
-        <v>0.964309208133857</v>
+        <v>1.035103275857838</v>
       </c>
       <c r="K14">
-        <v>0.9797237216019303</v>
+        <v>1.03588266497515</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764513</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9574101036596918</v>
+        <v>1.039338794141777</v>
       </c>
       <c r="N14">
-        <v>0.9656786378172192</v>
+        <v>1.036573241237562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.933149941152743</v>
+        <v>1.028677554890438</v>
       </c>
       <c r="D15">
-        <v>0.9651340382875505</v>
+        <v>1.032448715214166</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.942638561918383</v>
+        <v>1.035968901725187</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018988732526703</v>
+        <v>1.032267901199631</v>
       </c>
       <c r="J15">
-        <v>0.965424930403046</v>
+        <v>1.035261616978118</v>
       </c>
       <c r="K15">
-        <v>0.980669074967918</v>
+        <v>1.036013193538212</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9586513598423396</v>
+        <v>1.039520341756653</v>
       </c>
       <c r="N15">
-        <v>0.9667959445400056</v>
+        <v>1.036731807220395</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9410813994533318</v>
+        <v>1.029821987742952</v>
       </c>
       <c r="D16">
-        <v>0.9711640999456433</v>
+        <v>1.033324108157251</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9504147053399036</v>
+        <v>1.037141813291842</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021524903353726</v>
+        <v>1.032562198528228</v>
       </c>
       <c r="J16">
-        <v>0.9717596824267934</v>
+        <v>1.036181427364584</v>
       </c>
       <c r="K16">
-        <v>0.9860359977083808</v>
+        <v>1.036771184766394</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9657014077726487</v>
+        <v>1.040575261428021</v>
       </c>
       <c r="N16">
-        <v>0.9731396926382329</v>
+        <v>1.037652923843112</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9458930917937943</v>
+        <v>1.030538319552758</v>
       </c>
       <c r="D17">
-        <v>0.9748263786816864</v>
+        <v>1.033871858331491</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9551365769440264</v>
+        <v>1.037876132393959</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023059586427609</v>
+        <v>1.032745728310911</v>
       </c>
       <c r="J17">
-        <v>0.9756019493806112</v>
+        <v>1.036756827734192</v>
       </c>
       <c r="K17">
-        <v>0.9892906750024336</v>
+        <v>1.037245132079132</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9699797710618476</v>
+        <v>1.041235447366518</v>
       </c>
       <c r="N17">
-        <v>0.9769874160518394</v>
+        <v>1.038229141347245</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9486448784741662</v>
+        <v>1.030955596232621</v>
       </c>
       <c r="D18">
-        <v>0.9769221242134293</v>
+        <v>1.034190866879998</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9578384949571728</v>
+        <v>1.038303945161164</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023935785290711</v>
+        <v>1.032852392953953</v>
       </c>
       <c r="J18">
-        <v>0.9777989706157432</v>
+        <v>1.037091888628592</v>
       </c>
       <c r="K18">
-        <v>0.9911514681389206</v>
+        <v>1.037521034725908</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9724269655121777</v>
+        <v>1.041619975715222</v>
       </c>
       <c r="N18">
-        <v>0.9791875573091272</v>
+        <v>1.038564678066548</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.949574232942502</v>
+        <v>1.031097784644029</v>
       </c>
       <c r="D19">
-        <v>0.9776301220701273</v>
+        <v>1.034299558826049</v>
       </c>
       <c r="E19">
-        <v>0.939759481468009</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9587512545006175</v>
+        <v>1.038449733633239</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024231444169761</v>
+        <v>1.032888697723374</v>
       </c>
       <c r="J19">
-        <v>0.9785408982842737</v>
+        <v>1.037206041265883</v>
       </c>
       <c r="K19">
-        <v>0.99177980796174</v>
+        <v>1.037615018814966</v>
       </c>
       <c r="L19">
-        <v>0.954635249381271</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9732535142265129</v>
+        <v>1.041750997837291</v>
       </c>
       <c r="N19">
-        <v>0.9799305386000474</v>
+        <v>1.038678992813676</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.945382597544309</v>
+        <v>1.030461520736702</v>
       </c>
       <c r="D20">
-        <v>0.9744376915182349</v>
+        <v>1.033813140196804</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660139</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9546354541418502</v>
+        <v>1.037797399117667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022896917556414</v>
+        <v>1.032726077194048</v>
       </c>
       <c r="J20">
-        <v>0.9751943411825806</v>
+        <v>1.036695150825946</v>
       </c>
       <c r="K20">
-        <v>0.9889454258606503</v>
+        <v>1.037194338278803</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9695258149555489</v>
+        <v>1.041164672394694</v>
       </c>
       <c r="N20">
-        <v>0.9765792290034142</v>
+        <v>1.038167376850715</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9310818656163194</v>
+        <v>1.028386475844045</v>
       </c>
       <c r="D21">
-        <v>0.9635631951727064</v>
+        <v>1.032226008841492</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9406124656723237</v>
+        <v>1.035670629356579</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018326263445648</v>
+        <v>1.032192838970432</v>
       </c>
       <c r="J21">
-        <v>0.9637730124541757</v>
+        <v>1.035027566113266</v>
       </c>
       <c r="K21">
-        <v>0.979269394297831</v>
+        <v>1.035820249117798</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981066</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9568136245714528</v>
+        <v>1.039251993699323</v>
       </c>
       <c r="N21">
-        <v>0.9651416806781701</v>
+        <v>1.036497423976468</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.921500705189804</v>
+        <v>1.027076714440032</v>
       </c>
       <c r="D22">
-        <v>0.9562940544146472</v>
+        <v>1.031223629682311</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.9312337872767074</v>
+        <v>1.034328747557811</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015251685605033</v>
+        <v>1.031854051499572</v>
       </c>
       <c r="J22">
-        <v>0.9561195158889771</v>
+        <v>1.033973906109032</v>
       </c>
       <c r="K22">
-        <v>0.9727840702956014</v>
+        <v>1.034951303089356</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9483027558956352</v>
+        <v>1.038044337013461</v>
       </c>
       <c r="N22">
-        <v>0.9574773152699809</v>
+        <v>1.035442267654172</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9266411031073342</v>
+        <v>1.027771535092079</v>
       </c>
       <c r="D23">
-        <v>0.9601922744749797</v>
+        <v>1.031755440922609</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963314</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.9362639152540405</v>
+        <v>1.035040557769296</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016902280613934</v>
+        <v>1.032033985165704</v>
       </c>
       <c r="J23">
-        <v>0.9602257331294067</v>
+        <v>1.034532969111224</v>
       </c>
       <c r="K23">
-        <v>0.9762636202683777</v>
+        <v>1.035412427370062</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285318</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9528682622093535</v>
+        <v>1.038685027610695</v>
       </c>
       <c r="N23">
-        <v>0.9615893638098817</v>
+        <v>1.036002124589952</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9456134362625485</v>
+        <v>1.030496224507179</v>
       </c>
       <c r="D24">
-        <v>0.9746134466678823</v>
+        <v>1.033839673892209</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011709</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9548620505640296</v>
+        <v>1.037832976850275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022970478888477</v>
+        <v>1.032734957877899</v>
       </c>
       <c r="J24">
-        <v>0.9753786573205608</v>
+        <v>1.036723021697081</v>
       </c>
       <c r="K24">
-        <v>0.9891015446542343</v>
+        <v>1.037217291487636</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442449</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.969731086598698</v>
+        <v>1.041196654247449</v>
       </c>
       <c r="N24">
-        <v>0.9767638068914518</v>
+        <v>1.038195287301683</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9655057136074834</v>
+        <v>1.033636678012544</v>
       </c>
       <c r="D25">
-        <v>0.9897817789297858</v>
+        <v>1.036239348915663</v>
       </c>
       <c r="E25">
-        <v>0.9463835801717733</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.9744178271374897</v>
+        <v>1.041053768237506</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029276734489345</v>
+        <v>1.033533312533602</v>
       </c>
       <c r="J25">
-        <v>0.9912524470612691</v>
+        <v>1.039242539011682</v>
       </c>
       <c r="K25">
-        <v>1.002540818116488</v>
+        <v>1.039290498090362</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005611</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9874266945432026</v>
+        <v>1.044089877445503</v>
       </c>
       <c r="N25">
-        <v>0.9926601392343413</v>
+        <v>1.040718382619863</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_72/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_72/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03612509674085</v>
+        <v>0.9800300091604097</v>
       </c>
       <c r="D2">
-        <v>1.038138645255278</v>
+        <v>1.000880456260552</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.04360766331726</v>
+        <v>0.9887335038456242</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034158167621293</v>
+        <v>1.033830176962475</v>
       </c>
       <c r="J2">
-        <v>1.041235120978439</v>
+        <v>1.00282487892607</v>
       </c>
       <c r="K2">
-        <v>1.04092753164607</v>
+        <v>1.012327538542645</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.046381051344862</v>
+        <v>1.000352062881289</v>
       </c>
       <c r="N2">
-        <v>1.042713794281605</v>
+        <v>1.004249005279767</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037922818510341</v>
+        <v>0.989935873252842</v>
       </c>
       <c r="D3">
-        <v>1.039509490123185</v>
+        <v>1.008458053163225</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.045453735789065</v>
+        <v>0.9985157583154969</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034605084211917</v>
+        <v>1.036903765439791</v>
       </c>
       <c r="J3">
-        <v>1.042672406023564</v>
+        <v>1.010704707877891</v>
       </c>
       <c r="K3">
-        <v>1.04210684621371</v>
+        <v>1.018983843508026</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048035490544426</v>
+        <v>1.009167665584352</v>
       </c>
       <c r="N3">
-        <v>1.044153120436315</v>
+        <v>1.012140024492528</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.039081994242461</v>
+        <v>0.996085931243274</v>
       </c>
       <c r="D4">
-        <v>1.040392815400964</v>
+        <v>1.013164849824951</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.046644571299179</v>
+        <v>1.004596989853715</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03489117027549</v>
+        <v>1.038796533506625</v>
       </c>
       <c r="J4">
-        <v>1.043598137212408</v>
+        <v>1.015590292010323</v>
       </c>
       <c r="K4">
-        <v>1.042865721643377</v>
+        <v>1.023106941410028</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.049101911696669</v>
+        <v>1.014640248086301</v>
       </c>
       <c r="N4">
-        <v>1.04508016626963</v>
+        <v>1.017032546714813</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039568356608781</v>
+        <v>0.9986139335653622</v>
       </c>
       <c r="D5">
-        <v>1.040763292616308</v>
+        <v>1.015099938248233</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.047144332772767</v>
+        <v>1.007098510008039</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035010704669345</v>
+        <v>1.039570752393653</v>
       </c>
       <c r="J5">
-        <v>1.043986303652549</v>
+        <v>1.01759684959512</v>
       </c>
       <c r="K5">
-        <v>1.04318375555812</v>
+        <v>1.024799354829489</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.049549268613698</v>
+        <v>1.016889540367953</v>
       </c>
       <c r="N5">
-        <v>1.045468883950638</v>
+        <v>1.019041953841535</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.039649963540637</v>
+        <v>0.999035151440976</v>
       </c>
       <c r="D6">
-        <v>1.040825446590854</v>
+        <v>1.015422379222911</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.047228194709199</v>
+        <v>1.00751541943099</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035030732013508</v>
+        <v>1.039699526490387</v>
       </c>
       <c r="J6">
-        <v>1.044051419675552</v>
+        <v>1.017931082611278</v>
       </c>
       <c r="K6">
-        <v>1.0432370967421</v>
+        <v>1.025081201450096</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.049624325643864</v>
+        <v>1.01726430326588</v>
       </c>
       <c r="N6">
-        <v>1.045534092445863</v>
+        <v>1.019376661506914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039088496766832</v>
+        <v>0.9961199306191967</v>
       </c>
       <c r="D7">
-        <v>1.040397769146096</v>
+        <v>1.013190873918713</v>
       </c>
       <c r="E7">
-        <v>0.9943035907978915</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.046651252512191</v>
+        <v>1.004630626003353</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034892770384848</v>
+        <v>1.038806961297495</v>
       </c>
       <c r="J7">
-        <v>1.043603327862383</v>
+        <v>1.015617285194019</v>
       </c>
       <c r="K7">
-        <v>1.042869975129233</v>
+        <v>1.023129712541801</v>
       </c>
       <c r="L7">
-        <v>0.9968970624459041</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.049107893075316</v>
+        <v>1.014670500091871</v>
       </c>
       <c r="N7">
-        <v>1.045085364290922</v>
+        <v>1.017059578231925</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036733499764159</v>
+        <v>0.9834345267983168</v>
       </c>
       <c r="D8">
-        <v>1.038602703771005</v>
+        <v>1.003484173642705</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674294</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.044232329252598</v>
+        <v>0.9920937950588875</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034309850256337</v>
+        <v>1.034889756368036</v>
       </c>
       <c r="J8">
-        <v>1.041721755612599</v>
+        <v>1.005534419614324</v>
       </c>
       <c r="K8">
-        <v>1.04132696813396</v>
+        <v>1.014617155518653</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591053</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.046941038931198</v>
+        <v>1.003381936772006</v>
       </c>
       <c r="N8">
-        <v>1.043201119992724</v>
+        <v>1.006962393826586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.032551644289019</v>
+        <v>0.9588452525051109</v>
       </c>
       <c r="D9">
-        <v>1.035410585398478</v>
+        <v>0.9846983216352647</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.039940694406426</v>
+        <v>0.9678635933304339</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033258679585634</v>
+        <v>1.027173102146861</v>
       </c>
       <c r="J9">
-        <v>1.038372632144506</v>
+        <v>0.9859399496024077</v>
       </c>
       <c r="K9">
-        <v>1.03857508712197</v>
+        <v>0.9980446343593502</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.04309047049321</v>
+        <v>0.9815005074525832</v>
       </c>
       <c r="N9">
-        <v>1.039847240385157</v>
+        <v>0.9873400974197361</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029740960714777</v>
+        <v>0.9405299305567194</v>
       </c>
       <c r="D10">
-        <v>1.033262141114904</v>
+        <v>0.9707445570548433</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547166</v>
       </c>
       <c r="F10">
-        <v>1.037058759538192</v>
+        <v>0.9498737434456921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032541405614812</v>
+        <v>1.021348814389837</v>
       </c>
       <c r="J10">
-        <v>1.036116325308596</v>
+        <v>0.9713192761956077</v>
       </c>
       <c r="K10">
-        <v>1.036717550341339</v>
+        <v>0.9856629112603252</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689268</v>
       </c>
       <c r="M10">
-        <v>1.040500579549706</v>
+        <v>0.9652111270573166</v>
       </c>
       <c r="N10">
-        <v>1.037587729334738</v>
+        <v>0.9726986609796837</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028518224331002</v>
+        <v>0.9320205635112934</v>
       </c>
       <c r="D11">
-        <v>1.032326813190843</v>
+        <v>0.9642761226245643</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016255</v>
       </c>
       <c r="F11">
-        <v>1.03580563119657</v>
+        <v>0.9415320332693998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032226824145286</v>
+        <v>1.018627013904151</v>
       </c>
       <c r="J11">
-        <v>1.03513350757703</v>
+        <v>0.9645228229823875</v>
       </c>
       <c r="K11">
-        <v>1.035907587489115</v>
+        <v>0.9799047195613685</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.949155612541657</v>
       </c>
       <c r="M11">
-        <v>1.03937345545901</v>
+        <v>0.9576477430579802</v>
       </c>
       <c r="N11">
-        <v>1.036603515889263</v>
+        <v>0.9658925560233365</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028063166494795</v>
+        <v>0.9287594543370694</v>
       </c>
       <c r="D12">
-        <v>1.031978616776366</v>
+        <v>0.9617999159626438</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.035339353743857</v>
+        <v>0.9383379266716781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032109366906693</v>
+        <v>1.017581795751723</v>
       </c>
       <c r="J12">
-        <v>1.03476755113127</v>
+        <v>0.9619178874460019</v>
       </c>
       <c r="K12">
-        <v>1.035605868150702</v>
+        <v>0.9776974820355848</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.038953915341526</v>
+        <v>0.9547501572460266</v>
       </c>
       <c r="N12">
-        <v>1.036237039743374</v>
+        <v>0.9632839211796993</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028160818114856</v>
+        <v>0.9294637637504334</v>
       </c>
       <c r="D13">
-        <v>1.032053341391661</v>
+        <v>0.9623345746212895</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.035439408870862</v>
+        <v>0.9390276364020756</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032134589497593</v>
+        <v>1.017807624949251</v>
       </c>
       <c r="J13">
-        <v>1.034846090810584</v>
+        <v>0.9624804892110362</v>
       </c>
       <c r="K13">
-        <v>1.035670627290563</v>
+        <v>0.9781741995013509</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.039043948121127</v>
+        <v>0.9553759061192846</v>
       </c>
       <c r="N13">
-        <v>1.036315690958041</v>
+        <v>0.9638473219037712</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028480627181543</v>
+        <v>0.9317531349676583</v>
       </c>
       <c r="D14">
-        <v>1.032298047055737</v>
+        <v>0.9640730014144114</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.03576710521532</v>
+        <v>0.9412700419583092</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032217127531437</v>
+        <v>1.018541341595052</v>
       </c>
       <c r="J14">
-        <v>1.035103275857838</v>
+        <v>0.964309208133857</v>
       </c>
       <c r="K14">
-        <v>1.03588266497515</v>
+        <v>0.9797237216019304</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.039338794141777</v>
+        <v>0.9574101036596921</v>
       </c>
       <c r="N14">
-        <v>1.036573241237562</v>
+        <v>0.9656786378172192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028677554890438</v>
+        <v>0.933149941152742</v>
       </c>
       <c r="D15">
-        <v>1.032448715214166</v>
+        <v>0.9651340382875494</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.035968901725187</v>
+        <v>0.9426385619183821</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032267901199631</v>
+        <v>1.018988732526703</v>
       </c>
       <c r="J15">
-        <v>1.035261616978118</v>
+        <v>0.9654249304030451</v>
       </c>
       <c r="K15">
-        <v>1.036013193538212</v>
+        <v>0.9806690749679171</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.039520341756653</v>
+        <v>0.9586513598423388</v>
       </c>
       <c r="N15">
-        <v>1.036731807220395</v>
+        <v>0.9667959445400045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029821987742952</v>
+        <v>0.9410813994533317</v>
       </c>
       <c r="D16">
-        <v>1.033324108157251</v>
+        <v>0.9711640999456431</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.037141813291842</v>
+        <v>0.9504147053399028</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032562198528228</v>
+        <v>1.021524903353726</v>
       </c>
       <c r="J16">
-        <v>1.036181427364584</v>
+        <v>0.9717596824267931</v>
       </c>
       <c r="K16">
-        <v>1.036771184766394</v>
+        <v>0.9860359977083806</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.040575261428021</v>
+        <v>0.965701407772648</v>
       </c>
       <c r="N16">
-        <v>1.037652923843112</v>
+        <v>0.9731396926382325</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030538319552758</v>
+        <v>0.9458930917937961</v>
       </c>
       <c r="D17">
-        <v>1.033871858331491</v>
+        <v>0.974826378681688</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.037876132393959</v>
+        <v>0.9551365769440282</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032745728310911</v>
+        <v>1.02305958642761</v>
       </c>
       <c r="J17">
-        <v>1.036756827734192</v>
+        <v>0.9756019493806128</v>
       </c>
       <c r="K17">
-        <v>1.037245132079132</v>
+        <v>0.9892906750024349</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.041235447366518</v>
+        <v>0.9699797710618492</v>
       </c>
       <c r="N17">
-        <v>1.038229141347245</v>
+        <v>0.9769874160518409</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030955596232621</v>
+        <v>0.9486448784741678</v>
       </c>
       <c r="D18">
-        <v>1.034190866879998</v>
+        <v>0.9769221242134305</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.038303945161164</v>
+        <v>0.9578384949571741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032852392953953</v>
+        <v>1.023935785290712</v>
       </c>
       <c r="J18">
-        <v>1.037091888628592</v>
+        <v>0.9777989706157449</v>
       </c>
       <c r="K18">
-        <v>1.037521034725908</v>
+        <v>0.9911514681389217</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.041619975715222</v>
+        <v>0.972426965512179</v>
       </c>
       <c r="N18">
-        <v>1.038564678066548</v>
+        <v>0.9791875573091285</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031097784644029</v>
+        <v>0.9495742329425038</v>
       </c>
       <c r="D19">
-        <v>1.034299558826049</v>
+        <v>0.9776301220701288</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814680089</v>
       </c>
       <c r="F19">
-        <v>1.038449733633239</v>
+        <v>0.9587512545006189</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032888697723374</v>
+        <v>1.024231444169762</v>
       </c>
       <c r="J19">
-        <v>1.037206041265883</v>
+        <v>0.9785408982842754</v>
       </c>
       <c r="K19">
-        <v>1.037615018814966</v>
+        <v>0.9917798079617416</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493812709</v>
       </c>
       <c r="M19">
-        <v>1.041750997837291</v>
+        <v>0.9732535142265142</v>
       </c>
       <c r="N19">
-        <v>1.038678992813676</v>
+        <v>0.9799305386000489</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030461520736702</v>
+        <v>0.9453825975443094</v>
       </c>
       <c r="D20">
-        <v>1.033813140196804</v>
+        <v>0.9744376915182352</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.037797399117667</v>
+        <v>0.9546354541418507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032726077194048</v>
+        <v>1.022896917556414</v>
       </c>
       <c r="J20">
-        <v>1.036695150825946</v>
+        <v>0.9751943411825812</v>
       </c>
       <c r="K20">
-        <v>1.037194338278803</v>
+        <v>0.9889454258606505</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.041164672394694</v>
+        <v>0.9695258149555495</v>
       </c>
       <c r="N20">
-        <v>1.038167376850715</v>
+        <v>0.9765792290034145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028386475844045</v>
+        <v>0.9310818656163178</v>
       </c>
       <c r="D21">
-        <v>1.032226008841492</v>
+        <v>0.9635631951727052</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.035670629356579</v>
+        <v>0.9406124656723222</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032192838970432</v>
+        <v>1.018326263445647</v>
       </c>
       <c r="J21">
-        <v>1.035027566113266</v>
+        <v>0.9637730124541741</v>
       </c>
       <c r="K21">
-        <v>1.035820249117798</v>
+        <v>0.9792693942978298</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.039251993699323</v>
+        <v>0.956813624571451</v>
       </c>
       <c r="N21">
-        <v>1.036497423976468</v>
+        <v>0.9651416806781691</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.027076714440032</v>
+        <v>0.9215007051898036</v>
       </c>
       <c r="D22">
-        <v>1.031223629682311</v>
+        <v>0.9562940544146465</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.034328747557811</v>
+        <v>0.9312337872767072</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031854051499572</v>
+        <v>1.015251685605033</v>
       </c>
       <c r="J22">
-        <v>1.033973906109032</v>
+        <v>0.9561195158889768</v>
       </c>
       <c r="K22">
-        <v>1.034951303089356</v>
+        <v>0.9727840702956008</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.038044337013461</v>
+        <v>0.9483027558956351</v>
       </c>
       <c r="N22">
-        <v>1.035442267654172</v>
+        <v>0.9574773152699803</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027771535092079</v>
+        <v>0.9266411031073355</v>
       </c>
       <c r="D23">
-        <v>1.031755440922609</v>
+        <v>0.9601922744749809</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.035040557769296</v>
+        <v>0.9362639152540421</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032033985165704</v>
+        <v>1.016902280613935</v>
       </c>
       <c r="J23">
-        <v>1.034532969111224</v>
+        <v>0.9602257331294082</v>
       </c>
       <c r="K23">
-        <v>1.035412427370062</v>
+        <v>0.9762636202683789</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.038685027610695</v>
+        <v>0.9528682622093549</v>
       </c>
       <c r="N23">
-        <v>1.036002124589952</v>
+        <v>0.9615893638098828</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030496224507179</v>
+        <v>0.9456134362625488</v>
       </c>
       <c r="D24">
-        <v>1.033839673892209</v>
+        <v>0.9746134466678826</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.9381640424011709</v>
       </c>
       <c r="F24">
-        <v>1.037832976850275</v>
+        <v>0.9548620505640298</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032734957877899</v>
+        <v>1.022970478888477</v>
       </c>
       <c r="J24">
-        <v>1.036723021697081</v>
+        <v>0.9753786573205612</v>
       </c>
       <c r="K24">
-        <v>1.037217291487636</v>
+        <v>0.9891015446542346</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.9533716596442451</v>
       </c>
       <c r="M24">
-        <v>1.041196654247449</v>
+        <v>0.9697310865986983</v>
       </c>
       <c r="N24">
-        <v>1.038195287301683</v>
+        <v>0.9767638068914521</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033636678012544</v>
+        <v>0.9655057136074827</v>
       </c>
       <c r="D25">
-        <v>1.036239348915663</v>
+        <v>0.9897817789297854</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801717737</v>
       </c>
       <c r="F25">
-        <v>1.041053768237506</v>
+        <v>0.974417827137489</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033533312533602</v>
+        <v>1.029276734489344</v>
       </c>
       <c r="J25">
-        <v>1.039242539011682</v>
+        <v>0.9912524470612685</v>
       </c>
       <c r="K25">
-        <v>1.039290498090362</v>
+        <v>1.002540818116488</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005615</v>
       </c>
       <c r="M25">
-        <v>1.044089877445503</v>
+        <v>0.987426694543202</v>
       </c>
       <c r="N25">
-        <v>1.040718382619863</v>
+        <v>0.9926601392343404</v>
       </c>
     </row>
   </sheetData>
